--- a/2022/Realme/May/28.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/28.05.2022/realme Bank Statement May-20222.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -722,7 +722,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1803,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,9 +2206,6 @@
     <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2325,15 +2328,6 @@
     <xf numFmtId="2" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="40" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2433,6 +2427,33 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2448,51 +2469,51 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2543,15 +2564,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="40" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="40" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="40" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2685,6 +2697,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3162,29 +3180,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="223"/>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
+      <c r="A1" s="228"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="222" t="s">
+      <c r="B3" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -3247,20 +3265,20 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="190">
+      <c r="C8" s="186">
         <v>2700000</v>
       </c>
-      <c r="D8" s="190">
+      <c r="D8" s="186">
         <v>2700000</v>
       </c>
-      <c r="E8" s="202">
+      <c r="E8" s="198">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="1"/>
@@ -3270,20 +3288,20 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="190">
+      <c r="C9" s="186">
         <v>1550000</v>
       </c>
-      <c r="D9" s="190">
+      <c r="D9" s="186">
         <v>1550000</v>
       </c>
-      <c r="E9" s="202">
+      <c r="E9" s="198">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
-      <c r="F9" s="191" t="s">
+      <c r="F9" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="1"/>
@@ -3350,20 +3368,20 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="190">
+      <c r="C13" s="186">
         <v>2200000</v>
       </c>
-      <c r="D13" s="190">
+      <c r="D13" s="186">
         <v>2200000</v>
       </c>
-      <c r="E13" s="202">
+      <c r="E13" s="198">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
-      <c r="F13" s="191" t="s">
+      <c r="F13" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -3438,20 +3456,20 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="190">
+      <c r="C17" s="186">
         <v>1300000</v>
       </c>
-      <c r="D17" s="190">
+      <c r="D17" s="186">
         <v>1300000</v>
       </c>
-      <c r="E17" s="202">
+      <c r="E17" s="198">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
-      <c r="F17" s="191" t="s">
+      <c r="F17" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -3505,20 +3523,20 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="15"/>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="190">
+      <c r="C20" s="186">
         <v>950000</v>
       </c>
-      <c r="D20" s="190">
+      <c r="D20" s="186">
         <v>950000</v>
       </c>
-      <c r="E20" s="202">
+      <c r="E20" s="198">
         <f t="shared" si="0"/>
         <v>104807</v>
       </c>
-      <c r="F20" s="191" t="s">
+      <c r="F20" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3614,20 +3632,20 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="15"/>
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="197" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="190">
+      <c r="C25" s="186">
         <v>1000000</v>
       </c>
-      <c r="D25" s="190">
+      <c r="D25" s="186">
         <v>1000000</v>
       </c>
-      <c r="E25" s="202">
+      <c r="E25" s="198">
         <f t="shared" si="0"/>
         <v>29807</v>
       </c>
-      <c r="F25" s="191" t="s">
+      <c r="F25" s="187" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4120,67 +4138,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="234"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="237"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4189,52 +4207,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="224" t="s">
+      <c r="D4" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="224" t="s">
+      <c r="E4" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="224" t="s">
+      <c r="F4" s="229" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="224" t="s">
+      <c r="G4" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="224" t="s">
+      <c r="H4" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="224" t="s">
+      <c r="I4" s="229" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="224" t="s">
+      <c r="J4" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="224" t="s">
+      <c r="K4" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="224" t="s">
+      <c r="L4" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="224" t="s">
+      <c r="M4" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="228" t="s">
+      <c r="N4" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="226" t="s">
+      <c r="O4" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="239" t="s">
+      <c r="P4" s="242" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4247,22 +4265,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="236"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="229"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="240"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="243"/>
       <c r="Q5" s="69" t="s">
         <v>32</v>
       </c>
@@ -7354,6 +7372,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7367,12 +7391,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7407,14 +7425,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="247"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="H1" s="38"/>
       <c r="I1" s="116"/>
       <c r="J1" s="116"/>
@@ -7467,14 +7485,14 @@
       <c r="BE1" s="116"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="250"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
       <c r="H2" s="38"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
@@ -7527,14 +7545,14 @@
       <c r="BE2" s="116"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="253"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
       <c r="H3" s="38"/>
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
@@ -7658,15 +7676,15 @@
       <c r="BE4" s="116"/>
     </row>
     <row r="5" spans="1:57">
-      <c r="A5" s="203"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="135"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
-      <c r="E5" s="204">
+      <c r="E5" s="200">
         <f>C5+D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="209"/>
+      <c r="F5" s="205"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="116"/>
@@ -7720,15 +7738,15 @@
       <c r="BE5" s="116"/>
     </row>
     <row r="6" spans="1:57">
-      <c r="A6" s="205"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="206">
+      <c r="E6" s="202">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="210"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="40"/>
       <c r="H6" s="38"/>
       <c r="I6" s="41"/>
@@ -7782,15 +7800,15 @@
       <c r="BE6" s="116"/>
     </row>
     <row r="7" spans="1:57">
-      <c r="A7" s="205"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="206">
+      <c r="E7" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="210"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="40"/>
       <c r="H7" s="38"/>
       <c r="I7" s="41"/>
@@ -7844,15 +7862,15 @@
       <c r="BE7" s="116"/>
     </row>
     <row r="8" spans="1:57">
-      <c r="A8" s="205"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="206">
+      <c r="E8" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="211"/>
+      <c r="F8" s="207"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="116"/>
@@ -7906,15 +7924,15 @@
       <c r="BE8" s="116"/>
     </row>
     <row r="9" spans="1:57">
-      <c r="A9" s="205"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="206">
+      <c r="E9" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="212"/>
+      <c r="F9" s="208"/>
       <c r="G9" s="38"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
@@ -7968,15 +7986,15 @@
       <c r="BE9" s="116"/>
     </row>
     <row r="10" spans="1:57">
-      <c r="A10" s="205"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="206">
+      <c r="E10" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="213"/>
+      <c r="F10" s="209"/>
       <c r="G10" s="38"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -8030,15 +8048,15 @@
       <c r="BE10" s="116"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="A11" s="205"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="206">
+      <c r="E11" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="211"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="116"/>
@@ -8092,15 +8110,15 @@
       <c r="BE11" s="116"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="205"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="206">
+      <c r="E12" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="211"/>
+      <c r="F12" s="207"/>
       <c r="G12" s="45"/>
       <c r="H12" s="38"/>
       <c r="I12" s="116"/>
@@ -8154,15 +8172,15 @@
       <c r="BE12" s="116"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="205"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="206">
+      <c r="E13" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="213"/>
+      <c r="F13" s="209"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="41"/>
@@ -8216,15 +8234,15 @@
       <c r="BE13" s="116"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="205"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="206">
+      <c r="E14" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="212"/>
+      <c r="F14" s="208"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="41"/>
@@ -8278,15 +8296,15 @@
       <c r="BE14" s="116"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="205"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="206">
+      <c r="E15" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="211"/>
+      <c r="F15" s="207"/>
       <c r="G15" s="45"/>
       <c r="H15" s="38"/>
       <c r="I15" s="41"/>
@@ -8340,15 +8358,15 @@
       <c r="BE15" s="116"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="A16" s="205"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="206">
+      <c r="E16" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="211"/>
+      <c r="F16" s="207"/>
       <c r="G16" s="45"/>
       <c r="H16" s="38"/>
       <c r="I16" s="41"/>
@@ -8402,15 +8420,15 @@
       <c r="BE16" s="116"/>
     </row>
     <row r="17" spans="1:57">
-      <c r="A17" s="205"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="206">
+      <c r="E17" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="210"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
       <c r="I17" s="116"/>
@@ -8464,15 +8482,15 @@
       <c r="BE17" s="116"/>
     </row>
     <row r="18" spans="1:57">
-      <c r="A18" s="205"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="206">
+      <c r="E18" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="213"/>
+      <c r="F18" s="209"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="116"/>
@@ -8526,15 +8544,15 @@
       <c r="BE18" s="116"/>
     </row>
     <row r="19" spans="1:57">
-      <c r="A19" s="205"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="206">
+      <c r="E19" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="212"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="116"/>
@@ -8588,15 +8606,15 @@
       <c r="BE19" s="116"/>
     </row>
     <row r="20" spans="1:57">
-      <c r="A20" s="205"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="206">
+      <c r="E20" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="210"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="116"/>
@@ -8650,15 +8668,15 @@
       <c r="BE20" s="116"/>
     </row>
     <row r="21" spans="1:57">
-      <c r="A21" s="205"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="206">
+      <c r="E21" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="210"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="38"/>
       <c r="H21" s="45"/>
       <c r="I21" s="116"/>
@@ -8712,15 +8730,15 @@
       <c r="BE21" s="116"/>
     </row>
     <row r="22" spans="1:57">
-      <c r="A22" s="205"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="206">
+      <c r="E22" s="202">
         <f>C22+D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="210"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="116"/>
@@ -8774,15 +8792,15 @@
       <c r="BE22" s="116"/>
     </row>
     <row r="23" spans="1:57">
-      <c r="A23" s="205"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="206">
+      <c r="E23" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="210"/>
+      <c r="F23" s="206"/>
       <c r="G23" s="40"/>
       <c r="H23" s="45"/>
       <c r="I23" s="46"/>
@@ -8836,15 +8854,15 @@
       <c r="BE23" s="116"/>
     </row>
     <row r="24" spans="1:57">
-      <c r="A24" s="205"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="206">
+      <c r="E24" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="210"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="40"/>
       <c r="H24" s="38"/>
       <c r="I24" s="116"/>
@@ -8898,15 +8916,15 @@
       <c r="BE24" s="116"/>
     </row>
     <row r="25" spans="1:57">
-      <c r="A25" s="205"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="206">
+      <c r="E25" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="212"/>
+      <c r="F25" s="208"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="116"/>
@@ -8960,15 +8978,15 @@
       <c r="BE25" s="116"/>
     </row>
     <row r="26" spans="1:57">
-      <c r="A26" s="205"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="206">
+      <c r="E26" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="214"/>
+      <c r="F26" s="210"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="41"/>
@@ -9022,15 +9040,15 @@
       <c r="BE26" s="116"/>
     </row>
     <row r="27" spans="1:57">
-      <c r="A27" s="205"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="206">
+      <c r="E27" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="212"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="41"/>
@@ -9084,15 +9102,15 @@
       <c r="BE27" s="116"/>
     </row>
     <row r="28" spans="1:57">
-      <c r="A28" s="205"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="206">
+      <c r="E28" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="212"/>
+      <c r="F28" s="208"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="41"/>
@@ -9146,15 +9164,15 @@
       <c r="BE28" s="116"/>
     </row>
     <row r="29" spans="1:57">
-      <c r="A29" s="205"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="206">
+      <c r="E29" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="212"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="116"/>
@@ -9208,15 +9226,15 @@
       <c r="BE29" s="116"/>
     </row>
     <row r="30" spans="1:57">
-      <c r="A30" s="205"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="206">
+      <c r="E30" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="211"/>
+      <c r="F30" s="207"/>
       <c r="G30" s="49"/>
       <c r="H30" s="38"/>
       <c r="I30" s="116"/>
@@ -9270,15 +9288,15 @@
       <c r="BE30" s="116"/>
     </row>
     <row r="31" spans="1:57">
-      <c r="A31" s="205"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="206">
+      <c r="E31" s="202">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="211"/>
+      <c r="F31" s="207"/>
       <c r="G31" s="50"/>
       <c r="H31" s="38"/>
       <c r="I31" s="116"/>
@@ -9332,17 +9350,17 @@
       <c r="BE31" s="116"/>
     </row>
     <row r="32" spans="1:57">
-      <c r="A32" s="205"/>
+      <c r="A32" s="201"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39">
         <v>-917180</v>
       </c>
-      <c r="E32" s="206">
+      <c r="E32" s="202">
         <f t="shared" si="0"/>
         <v>-917180</v>
       </c>
-      <c r="F32" s="211"/>
+      <c r="F32" s="207"/>
       <c r="G32" s="51"/>
       <c r="H32" s="38"/>
       <c r="I32" s="116"/>
@@ -9396,20 +9414,20 @@
       <c r="BE32" s="116"/>
     </row>
     <row r="33" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="216">
+      <c r="B33" s="212">
         <f>SUM(B5:B32)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="217">
+      <c r="C33" s="212"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213">
         <f>SUM(E5:E32)</f>
         <v>-917180</v>
       </c>
-      <c r="F33" s="218">
+      <c r="F33" s="214">
         <f>B33-E33</f>
         <v>917180</v>
       </c>
@@ -9466,11 +9484,11 @@
       <c r="BE33" s="116"/>
     </row>
     <row r="34" spans="1:57">
-      <c r="A34" s="207"/>
+      <c r="A34" s="203"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="208"/>
+      <c r="E34" s="204"/>
       <c r="F34" s="41"/>
       <c r="G34" s="50"/>
       <c r="H34" s="38"/>
@@ -9525,13 +9543,13 @@
       <c r="BE34" s="116"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="255" t="s">
+      <c r="A35" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="257"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="262"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9586,12 +9604,12 @@
       <c r="BE35" s="116"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="243" t="s">
+      <c r="A36" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="254"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="244"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="249"/>
       <c r="E36" s="134">
         <f>F33-C121</f>
         <v>0</v>
@@ -9650,16 +9668,16 @@
       <c r="BE36" s="116"/>
     </row>
     <row r="37" spans="1:57" ht="14.25">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="193" t="s">
+      <c r="B37" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="183">
+      <c r="C37" s="182">
         <v>1800</v>
       </c>
-      <c r="D37" s="194" t="s">
+      <c r="D37" s="190" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="42"/>
@@ -9717,16 +9735,16 @@
       <c r="BE37" s="116"/>
     </row>
     <row r="38" spans="1:57" ht="14.25">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="178" t="s">
+      <c r="B38" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="179">
+      <c r="C38" s="178">
         <v>46270</v>
       </c>
-      <c r="D38" s="180" t="s">
+      <c r="D38" s="179" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="41"/>
@@ -9784,16 +9802,16 @@
       <c r="BE38" s="116"/>
     </row>
     <row r="39" spans="1:57" ht="14.25">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="179">
+      <c r="C39" s="178">
         <v>4500</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="179" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="41"/>
@@ -9851,14 +9869,14 @@
       <c r="BE39" s="116"/>
     </row>
     <row r="40" spans="1:57" ht="14.25">
-      <c r="A40" s="178" t="s">
+      <c r="A40" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="178"/>
-      <c r="C40" s="179">
+      <c r="B40" s="177"/>
+      <c r="C40" s="178">
         <v>5000</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="41"/>
@@ -9916,16 +9934,16 @@
       <c r="BE40" s="116"/>
     </row>
     <row r="41" spans="1:57" ht="14.25">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="179">
+      <c r="C41" s="178">
         <v>4460</v>
       </c>
-      <c r="D41" s="180" t="s">
+      <c r="D41" s="179" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="53"/>
@@ -9983,16 +10001,16 @@
       <c r="BE41" s="116"/>
     </row>
     <row r="42" spans="1:57" ht="14.25">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="179">
+      <c r="C42" s="178">
         <v>100000</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="42"/>
@@ -10049,16 +10067,16 @@
       <c r="BE42" s="116"/>
     </row>
     <row r="43" spans="1:57" ht="14.25">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="179">
+      <c r="C43" s="178">
         <v>300000</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="42"/>
@@ -10109,16 +10127,16 @@
       <c r="AX43" s="116"/>
     </row>
     <row r="44" spans="1:57" ht="14.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="179">
+      <c r="C44" s="178">
         <v>1000</v>
       </c>
-      <c r="D44" s="180" t="s">
+      <c r="D44" s="179" t="s">
         <v>77</v>
       </c>
       <c r="E44" s="41"/>
@@ -10168,14 +10186,14 @@
       <c r="AX44" s="116"/>
     </row>
     <row r="45" spans="1:57" ht="14.25">
-      <c r="A45" s="178" t="s">
+      <c r="A45" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="178"/>
-      <c r="C45" s="179">
+      <c r="B45" s="177"/>
+      <c r="C45" s="178">
         <v>111290</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="191" t="s">
         <v>114</v>
       </c>
       <c r="E45" s="41"/>
@@ -10225,18 +10243,18 @@
       <c r="AX45" s="116"/>
     </row>
     <row r="46" spans="1:57" ht="14.25">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="178"/>
-      <c r="C46" s="179">
+      <c r="B46" s="177"/>
+      <c r="C46" s="178">
         <v>114550</v>
       </c>
-      <c r="D46" s="180" t="s">
+      <c r="D46" s="179" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="41"/>
-      <c r="F46" s="220"/>
+      <c r="F46" s="216"/>
       <c r="G46" s="116"/>
       <c r="H46" s="116"/>
       <c r="I46" s="116"/>
@@ -10283,14 +10301,14 @@
       <c r="AX46" s="116"/>
     </row>
     <row r="47" spans="1:57" ht="14.25">
-      <c r="A47" s="178" t="s">
+      <c r="A47" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="178"/>
-      <c r="C47" s="179">
+      <c r="B47" s="177"/>
+      <c r="C47" s="178">
         <v>59000</v>
       </c>
-      <c r="D47" s="180" t="s">
+      <c r="D47" s="179" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="41"/>
@@ -10340,16 +10358,16 @@
       <c r="AX47" s="116"/>
     </row>
     <row r="48" spans="1:57" ht="14.25">
-      <c r="A48" s="184" t="s">
+      <c r="A48" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="178" t="s">
+      <c r="B48" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="179">
+      <c r="C48" s="178">
         <v>30180</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="180" t="s">
         <v>70</v>
       </c>
       <c r="E48" s="41"/>
@@ -10399,16 +10417,16 @@
       <c r="AX48" s="116"/>
     </row>
     <row r="49" spans="1:50" ht="14.25">
-      <c r="A49" s="178" t="s">
+      <c r="A49" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="179">
+      <c r="C49" s="178">
         <v>30180</v>
       </c>
-      <c r="D49" s="180" t="s">
+      <c r="D49" s="179" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="41"/>
@@ -10458,14 +10476,14 @@
       <c r="AX49" s="116"/>
     </row>
     <row r="50" spans="1:50" ht="14.25">
-      <c r="A50" s="178" t="s">
+      <c r="A50" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="178"/>
-      <c r="C50" s="179">
+      <c r="B50" s="177"/>
+      <c r="C50" s="178">
         <v>23340</v>
       </c>
-      <c r="D50" s="180" t="s">
+      <c r="D50" s="179" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="41"/>
@@ -10515,322 +10533,322 @@
       <c r="AX50" s="116"/>
     </row>
     <row r="51" spans="1:50" ht="14.25">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="178"/>
-      <c r="C51" s="179">
+      <c r="B51" s="177"/>
+      <c r="C51" s="178">
         <v>85610</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="179" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="41"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="177"/>
-      <c r="M51" s="177"/>
-      <c r="N51" s="177"/>
-      <c r="O51" s="177"/>
-      <c r="P51" s="177"/>
-      <c r="Q51" s="177"/>
-      <c r="R51" s="177"/>
-      <c r="S51" s="177"/>
-      <c r="T51" s="177"/>
-      <c r="U51" s="177"/>
-      <c r="V51" s="177"/>
-      <c r="W51" s="177"/>
-      <c r="X51" s="177"/>
-      <c r="Y51" s="177"/>
-      <c r="Z51" s="177"/>
-      <c r="AA51" s="177"/>
-      <c r="AB51" s="177"/>
-      <c r="AC51" s="177"/>
-      <c r="AD51" s="177"/>
-      <c r="AE51" s="177"/>
-      <c r="AF51" s="177"/>
-      <c r="AG51" s="177"/>
-      <c r="AH51" s="177"/>
-      <c r="AI51" s="177"/>
-      <c r="AJ51" s="177"/>
-      <c r="AK51" s="177"/>
-      <c r="AL51" s="177"/>
-      <c r="AM51" s="177"/>
-      <c r="AN51" s="177"/>
-      <c r="AO51" s="177"/>
-      <c r="AP51" s="177"/>
-      <c r="AQ51" s="177"/>
-      <c r="AR51" s="177"/>
-      <c r="AS51" s="177"/>
-      <c r="AT51" s="177"/>
-      <c r="AU51" s="177"/>
-      <c r="AV51" s="177"/>
-      <c r="AW51" s="177"/>
-      <c r="AX51" s="177"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
+      <c r="O51" s="176"/>
+      <c r="P51" s="176"/>
+      <c r="Q51" s="176"/>
+      <c r="R51" s="176"/>
+      <c r="S51" s="176"/>
+      <c r="T51" s="176"/>
+      <c r="U51" s="176"/>
+      <c r="V51" s="176"/>
+      <c r="W51" s="176"/>
+      <c r="X51" s="176"/>
+      <c r="Y51" s="176"/>
+      <c r="Z51" s="176"/>
+      <c r="AA51" s="176"/>
+      <c r="AB51" s="176"/>
+      <c r="AC51" s="176"/>
+      <c r="AD51" s="176"/>
+      <c r="AE51" s="176"/>
+      <c r="AF51" s="176"/>
+      <c r="AG51" s="176"/>
+      <c r="AH51" s="176"/>
+      <c r="AI51" s="176"/>
+      <c r="AJ51" s="176"/>
+      <c r="AK51" s="176"/>
+      <c r="AL51" s="176"/>
+      <c r="AM51" s="176"/>
+      <c r="AN51" s="176"/>
+      <c r="AO51" s="176"/>
+      <c r="AP51" s="176"/>
+      <c r="AQ51" s="176"/>
+      <c r="AR51" s="176"/>
+      <c r="AS51" s="176"/>
+      <c r="AT51" s="176"/>
+      <c r="AU51" s="176"/>
+      <c r="AV51" s="176"/>
+      <c r="AW51" s="176"/>
+      <c r="AX51" s="176"/>
     </row>
     <row r="52" spans="1:50" ht="14.25">
-      <c r="A52" s="178"/>
-      <c r="B52" s="178"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="181"/>
+      <c r="A52" s="177"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="180"/>
       <c r="E52" s="41"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="177"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="177"/>
-      <c r="M52" s="177"/>
-      <c r="N52" s="177"/>
-      <c r="O52" s="177"/>
-      <c r="P52" s="177"/>
-      <c r="Q52" s="177"/>
-      <c r="R52" s="177"/>
-      <c r="S52" s="177"/>
-      <c r="T52" s="177"/>
-      <c r="U52" s="177"/>
-      <c r="V52" s="177"/>
-      <c r="W52" s="177"/>
-      <c r="X52" s="177"/>
-      <c r="Y52" s="177"/>
-      <c r="Z52" s="177"/>
-      <c r="AA52" s="177"/>
-      <c r="AB52" s="177"/>
-      <c r="AC52" s="177"/>
-      <c r="AD52" s="177"/>
-      <c r="AE52" s="177"/>
-      <c r="AF52" s="177"/>
-      <c r="AG52" s="177"/>
-      <c r="AH52" s="177"/>
-      <c r="AI52" s="177"/>
-      <c r="AJ52" s="177"/>
-      <c r="AK52" s="177"/>
-      <c r="AL52" s="177"/>
-      <c r="AM52" s="177"/>
-      <c r="AN52" s="177"/>
-      <c r="AO52" s="177"/>
-      <c r="AP52" s="177"/>
-      <c r="AQ52" s="177"/>
-      <c r="AR52" s="177"/>
-      <c r="AS52" s="177"/>
-      <c r="AT52" s="177"/>
-      <c r="AU52" s="177"/>
-      <c r="AV52" s="177"/>
-      <c r="AW52" s="177"/>
-      <c r="AX52" s="177"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="176"/>
+      <c r="M52" s="176"/>
+      <c r="N52" s="176"/>
+      <c r="O52" s="176"/>
+      <c r="P52" s="176"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="176"/>
+      <c r="S52" s="176"/>
+      <c r="T52" s="176"/>
+      <c r="U52" s="176"/>
+      <c r="V52" s="176"/>
+      <c r="W52" s="176"/>
+      <c r="X52" s="176"/>
+      <c r="Y52" s="176"/>
+      <c r="Z52" s="176"/>
+      <c r="AA52" s="176"/>
+      <c r="AB52" s="176"/>
+      <c r="AC52" s="176"/>
+      <c r="AD52" s="176"/>
+      <c r="AE52" s="176"/>
+      <c r="AF52" s="176"/>
+      <c r="AG52" s="176"/>
+      <c r="AH52" s="176"/>
+      <c r="AI52" s="176"/>
+      <c r="AJ52" s="176"/>
+      <c r="AK52" s="176"/>
+      <c r="AL52" s="176"/>
+      <c r="AM52" s="176"/>
+      <c r="AN52" s="176"/>
+      <c r="AO52" s="176"/>
+      <c r="AP52" s="176"/>
+      <c r="AQ52" s="176"/>
+      <c r="AR52" s="176"/>
+      <c r="AS52" s="176"/>
+      <c r="AT52" s="176"/>
+      <c r="AU52" s="176"/>
+      <c r="AV52" s="176"/>
+      <c r="AW52" s="176"/>
+      <c r="AX52" s="176"/>
     </row>
     <row r="53" spans="1:50" ht="14.25">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
+      <c r="A53" s="177"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="41"/>
-      <c r="G53" s="177"/>
-      <c r="H53" s="177"/>
-      <c r="I53" s="177"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177"/>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="177"/>
-      <c r="R53" s="177"/>
-      <c r="S53" s="177"/>
-      <c r="T53" s="177"/>
-      <c r="U53" s="177"/>
-      <c r="V53" s="177"/>
-      <c r="W53" s="177"/>
-      <c r="X53" s="177"/>
-      <c r="Y53" s="177"/>
-      <c r="Z53" s="177"/>
-      <c r="AA53" s="177"/>
-      <c r="AB53" s="177"/>
-      <c r="AC53" s="177"/>
-      <c r="AD53" s="177"/>
-      <c r="AE53" s="177"/>
-      <c r="AF53" s="177"/>
-      <c r="AG53" s="177"/>
-      <c r="AH53" s="177"/>
-      <c r="AI53" s="177"/>
-      <c r="AJ53" s="177"/>
-      <c r="AK53" s="177"/>
-      <c r="AL53" s="177"/>
-      <c r="AM53" s="177"/>
-      <c r="AN53" s="177"/>
-      <c r="AO53" s="177"/>
-      <c r="AP53" s="177"/>
-      <c r="AQ53" s="177"/>
-      <c r="AR53" s="177"/>
-      <c r="AS53" s="177"/>
-      <c r="AT53" s="177"/>
-      <c r="AU53" s="177"/>
-      <c r="AV53" s="177"/>
-      <c r="AW53" s="177"/>
-      <c r="AX53" s="177"/>
+      <c r="G53" s="176"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="176"/>
+      <c r="K53" s="176"/>
+      <c r="L53" s="176"/>
+      <c r="M53" s="176"/>
+      <c r="N53" s="176"/>
+      <c r="O53" s="176"/>
+      <c r="P53" s="176"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="176"/>
+      <c r="S53" s="176"/>
+      <c r="T53" s="176"/>
+      <c r="U53" s="176"/>
+      <c r="V53" s="176"/>
+      <c r="W53" s="176"/>
+      <c r="X53" s="176"/>
+      <c r="Y53" s="176"/>
+      <c r="Z53" s="176"/>
+      <c r="AA53" s="176"/>
+      <c r="AB53" s="176"/>
+      <c r="AC53" s="176"/>
+      <c r="AD53" s="176"/>
+      <c r="AE53" s="176"/>
+      <c r="AF53" s="176"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="176"/>
+      <c r="AI53" s="176"/>
+      <c r="AJ53" s="176"/>
+      <c r="AK53" s="176"/>
+      <c r="AL53" s="176"/>
+      <c r="AM53" s="176"/>
+      <c r="AN53" s="176"/>
+      <c r="AO53" s="176"/>
+      <c r="AP53" s="176"/>
+      <c r="AQ53" s="176"/>
+      <c r="AR53" s="176"/>
+      <c r="AS53" s="176"/>
+      <c r="AT53" s="176"/>
+      <c r="AU53" s="176"/>
+      <c r="AV53" s="176"/>
+      <c r="AW53" s="176"/>
+      <c r="AX53" s="176"/>
     </row>
     <row r="54" spans="1:50" ht="14.25">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="180"/>
+      <c r="A54" s="177"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="41"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="177"/>
-      <c r="N54" s="177"/>
-      <c r="O54" s="177"/>
-      <c r="P54" s="177"/>
-      <c r="Q54" s="177"/>
-      <c r="R54" s="177"/>
-      <c r="S54" s="177"/>
-      <c r="T54" s="177"/>
-      <c r="U54" s="177"/>
-      <c r="V54" s="177"/>
-      <c r="W54" s="177"/>
-      <c r="X54" s="177"/>
-      <c r="Y54" s="177"/>
-      <c r="Z54" s="177"/>
-      <c r="AA54" s="177"/>
-      <c r="AB54" s="177"/>
-      <c r="AC54" s="177"/>
-      <c r="AD54" s="177"/>
-      <c r="AE54" s="177"/>
-      <c r="AF54" s="177"/>
-      <c r="AG54" s="177"/>
-      <c r="AH54" s="177"/>
-      <c r="AI54" s="177"/>
-      <c r="AJ54" s="177"/>
-      <c r="AK54" s="177"/>
-      <c r="AL54" s="177"/>
-      <c r="AM54" s="177"/>
-      <c r="AN54" s="177"/>
-      <c r="AO54" s="177"/>
-      <c r="AP54" s="177"/>
-      <c r="AQ54" s="177"/>
-      <c r="AR54" s="177"/>
-      <c r="AS54" s="177"/>
-      <c r="AT54" s="177"/>
-      <c r="AU54" s="177"/>
-      <c r="AV54" s="177"/>
-      <c r="AW54" s="177"/>
-      <c r="AX54" s="177"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
+      <c r="M54" s="176"/>
+      <c r="N54" s="176"/>
+      <c r="O54" s="176"/>
+      <c r="P54" s="176"/>
+      <c r="Q54" s="176"/>
+      <c r="R54" s="176"/>
+      <c r="S54" s="176"/>
+      <c r="T54" s="176"/>
+      <c r="U54" s="176"/>
+      <c r="V54" s="176"/>
+      <c r="W54" s="176"/>
+      <c r="X54" s="176"/>
+      <c r="Y54" s="176"/>
+      <c r="Z54" s="176"/>
+      <c r="AA54" s="176"/>
+      <c r="AB54" s="176"/>
+      <c r="AC54" s="176"/>
+      <c r="AD54" s="176"/>
+      <c r="AE54" s="176"/>
+      <c r="AF54" s="176"/>
+      <c r="AG54" s="176"/>
+      <c r="AH54" s="176"/>
+      <c r="AI54" s="176"/>
+      <c r="AJ54" s="176"/>
+      <c r="AK54" s="176"/>
+      <c r="AL54" s="176"/>
+      <c r="AM54" s="176"/>
+      <c r="AN54" s="176"/>
+      <c r="AO54" s="176"/>
+      <c r="AP54" s="176"/>
+      <c r="AQ54" s="176"/>
+      <c r="AR54" s="176"/>
+      <c r="AS54" s="176"/>
+      <c r="AT54" s="176"/>
+      <c r="AU54" s="176"/>
+      <c r="AV54" s="176"/>
+      <c r="AW54" s="176"/>
+      <c r="AX54" s="176"/>
     </row>
     <row r="55" spans="1:50" ht="14.25">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="180"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="41"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="177"/>
-      <c r="N55" s="177"/>
-      <c r="O55" s="177"/>
-      <c r="P55" s="177"/>
-      <c r="Q55" s="177"/>
-      <c r="R55" s="177"/>
-      <c r="S55" s="177"/>
-      <c r="T55" s="177"/>
-      <c r="U55" s="177"/>
-      <c r="V55" s="177"/>
-      <c r="W55" s="177"/>
-      <c r="X55" s="177"/>
-      <c r="Y55" s="177"/>
-      <c r="Z55" s="177"/>
-      <c r="AA55" s="177"/>
-      <c r="AB55" s="177"/>
-      <c r="AC55" s="177"/>
-      <c r="AD55" s="177"/>
-      <c r="AE55" s="177"/>
-      <c r="AF55" s="177"/>
-      <c r="AG55" s="177"/>
-      <c r="AH55" s="177"/>
-      <c r="AI55" s="177"/>
-      <c r="AJ55" s="177"/>
-      <c r="AK55" s="177"/>
-      <c r="AL55" s="177"/>
-      <c r="AM55" s="177"/>
-      <c r="AN55" s="177"/>
-      <c r="AO55" s="177"/>
-      <c r="AP55" s="177"/>
-      <c r="AQ55" s="177"/>
-      <c r="AR55" s="177"/>
-      <c r="AS55" s="177"/>
-      <c r="AT55" s="177"/>
-      <c r="AU55" s="177"/>
-      <c r="AV55" s="177"/>
-      <c r="AW55" s="177"/>
-      <c r="AX55" s="177"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="176"/>
+      <c r="L55" s="176"/>
+      <c r="M55" s="176"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="176"/>
+      <c r="P55" s="176"/>
+      <c r="Q55" s="176"/>
+      <c r="R55" s="176"/>
+      <c r="S55" s="176"/>
+      <c r="T55" s="176"/>
+      <c r="U55" s="176"/>
+      <c r="V55" s="176"/>
+      <c r="W55" s="176"/>
+      <c r="X55" s="176"/>
+      <c r="Y55" s="176"/>
+      <c r="Z55" s="176"/>
+      <c r="AA55" s="176"/>
+      <c r="AB55" s="176"/>
+      <c r="AC55" s="176"/>
+      <c r="AD55" s="176"/>
+      <c r="AE55" s="176"/>
+      <c r="AF55" s="176"/>
+      <c r="AG55" s="176"/>
+      <c r="AH55" s="176"/>
+      <c r="AI55" s="176"/>
+      <c r="AJ55" s="176"/>
+      <c r="AK55" s="176"/>
+      <c r="AL55" s="176"/>
+      <c r="AM55" s="176"/>
+      <c r="AN55" s="176"/>
+      <c r="AO55" s="176"/>
+      <c r="AP55" s="176"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="176"/>
+      <c r="AS55" s="176"/>
+      <c r="AT55" s="176"/>
+      <c r="AU55" s="176"/>
+      <c r="AV55" s="176"/>
+      <c r="AW55" s="176"/>
+      <c r="AX55" s="176"/>
     </row>
     <row r="56" spans="1:50" ht="14.25">
-      <c r="A56" s="178"/>
-      <c r="B56" s="178"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="181"/>
+      <c r="A56" s="177"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="180"/>
       <c r="E56" s="41"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="177"/>
-      <c r="L56" s="177"/>
-      <c r="M56" s="177"/>
-      <c r="N56" s="177"/>
-      <c r="O56" s="177"/>
-      <c r="P56" s="177"/>
-      <c r="Q56" s="177"/>
-      <c r="R56" s="177"/>
-      <c r="S56" s="177"/>
-      <c r="T56" s="177"/>
-      <c r="U56" s="177"/>
-      <c r="V56" s="177"/>
-      <c r="W56" s="177"/>
-      <c r="X56" s="177"/>
-      <c r="Y56" s="177"/>
-      <c r="Z56" s="177"/>
-      <c r="AA56" s="177"/>
-      <c r="AB56" s="177"/>
-      <c r="AC56" s="177"/>
-      <c r="AD56" s="177"/>
-      <c r="AE56" s="177"/>
-      <c r="AF56" s="177"/>
-      <c r="AG56" s="177"/>
-      <c r="AH56" s="177"/>
-      <c r="AI56" s="177"/>
-      <c r="AJ56" s="177"/>
-      <c r="AK56" s="177"/>
-      <c r="AL56" s="177"/>
-      <c r="AM56" s="177"/>
-      <c r="AN56" s="177"/>
-      <c r="AO56" s="177"/>
-      <c r="AP56" s="177"/>
-      <c r="AQ56" s="177"/>
-      <c r="AR56" s="177"/>
-      <c r="AS56" s="177"/>
-      <c r="AT56" s="177"/>
-      <c r="AU56" s="177"/>
-      <c r="AV56" s="177"/>
-      <c r="AW56" s="177"/>
-      <c r="AX56" s="177"/>
+      <c r="G56" s="176"/>
+      <c r="H56" s="176"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="176"/>
+      <c r="L56" s="176"/>
+      <c r="M56" s="176"/>
+      <c r="N56" s="176"/>
+      <c r="O56" s="176"/>
+      <c r="P56" s="176"/>
+      <c r="Q56" s="176"/>
+      <c r="R56" s="176"/>
+      <c r="S56" s="176"/>
+      <c r="T56" s="176"/>
+      <c r="U56" s="176"/>
+      <c r="V56" s="176"/>
+      <c r="W56" s="176"/>
+      <c r="X56" s="176"/>
+      <c r="Y56" s="176"/>
+      <c r="Z56" s="176"/>
+      <c r="AA56" s="176"/>
+      <c r="AB56" s="176"/>
+      <c r="AC56" s="176"/>
+      <c r="AD56" s="176"/>
+      <c r="AE56" s="176"/>
+      <c r="AF56" s="176"/>
+      <c r="AG56" s="176"/>
+      <c r="AH56" s="176"/>
+      <c r="AI56" s="176"/>
+      <c r="AJ56" s="176"/>
+      <c r="AK56" s="176"/>
+      <c r="AL56" s="176"/>
+      <c r="AM56" s="176"/>
+      <c r="AN56" s="176"/>
+      <c r="AO56" s="176"/>
+      <c r="AP56" s="176"/>
+      <c r="AQ56" s="176"/>
+      <c r="AR56" s="176"/>
+      <c r="AS56" s="176"/>
+      <c r="AT56" s="176"/>
+      <c r="AU56" s="176"/>
+      <c r="AV56" s="176"/>
+      <c r="AW56" s="176"/>
+      <c r="AX56" s="176"/>
     </row>
     <row r="57" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A57" s="158"/>
+      <c r="A57" s="157"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="159"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="158"/>
       <c r="E57" s="41"/>
       <c r="F57" s="116"/>
       <c r="G57" s="116"/>
@@ -10879,10 +10897,10 @@
       <c r="AX57" s="116"/>
     </row>
     <row r="58" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="161"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="163"/>
+      <c r="A58" s="159"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="162"/>
       <c r="E58" s="41"/>
       <c r="F58" s="116"/>
       <c r="G58" s="116"/>
@@ -10931,10 +10949,10 @@
       <c r="AX58" s="116"/>
     </row>
     <row r="59" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A59" s="160"/>
+      <c r="A59" s="159"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="164"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="41"/>
       <c r="F59" s="116"/>
       <c r="G59" s="116"/>
@@ -10983,10 +11001,10 @@
       <c r="AX59" s="116"/>
     </row>
     <row r="60" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A60" s="165"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="163"/>
+      <c r="A60" s="164"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="162"/>
       <c r="E60" s="41"/>
       <c r="F60" s="116"/>
       <c r="G60" s="116"/>
@@ -11035,10 +11053,10 @@
       <c r="AX60" s="116"/>
     </row>
     <row r="61" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A61" s="166"/>
+      <c r="A61" s="165"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="167"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="41"/>
       <c r="F61" s="116"/>
       <c r="G61" s="116"/>
@@ -11087,10 +11105,10 @@
       <c r="AX61" s="116"/>
     </row>
     <row r="62" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A62" s="166"/>
+      <c r="A62" s="165"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="162"/>
-      <c r="D62" s="156"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="155"/>
       <c r="E62" s="41"/>
       <c r="F62" s="116"/>
       <c r="G62" s="116"/>
@@ -11139,10 +11157,10 @@
       <c r="AX62" s="116"/>
     </row>
     <row r="63" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A63" s="160"/>
+      <c r="A63" s="159"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="162"/>
-      <c r="D63" s="164"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="41"/>
       <c r="F63" s="116"/>
       <c r="G63" s="116"/>
@@ -11191,10 +11209,10 @@
       <c r="AX63" s="116"/>
     </row>
     <row r="64" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A64" s="168"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="164"/>
+      <c r="A64" s="167"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="161"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="41"/>
       <c r="F64" s="116"/>
       <c r="G64" s="116"/>
@@ -11243,10 +11261,10 @@
       <c r="AX64" s="116"/>
     </row>
     <row r="65" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A65" s="160"/>
+      <c r="A65" s="159"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="162"/>
-      <c r="D65" s="164"/>
+      <c r="C65" s="161"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="41"/>
       <c r="F65" s="116"/>
       <c r="G65" s="116"/>
@@ -11295,10 +11313,10 @@
       <c r="AX65" s="116"/>
     </row>
     <row r="66" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A66" s="160"/>
+      <c r="A66" s="159"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="162"/>
-      <c r="D66" s="164"/>
+      <c r="C66" s="161"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="41"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
@@ -11347,10 +11365,10 @@
       <c r="AX66" s="116"/>
     </row>
     <row r="67" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A67" s="160"/>
+      <c r="A67" s="159"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="167"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="42"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
@@ -11399,10 +11417,10 @@
       <c r="AX67" s="116"/>
     </row>
     <row r="68" spans="1:50" ht="12.75" hidden="1" customHeight="1">
-      <c r="A68" s="169"/>
-      <c r="B68" s="169"/>
-      <c r="C68" s="162"/>
-      <c r="D68" s="167"/>
+      <c r="A68" s="168"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="47"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
@@ -11451,10 +11469,10 @@
       <c r="AX68" s="116"/>
     </row>
     <row r="69" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A69" s="160"/>
+      <c r="A69" s="159"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="162"/>
-      <c r="D69" s="167"/>
+      <c r="C69" s="161"/>
+      <c r="D69" s="166"/>
       <c r="E69" s="41"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
@@ -11503,10 +11521,10 @@
       <c r="AX69" s="116"/>
     </row>
     <row r="70" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A70" s="160"/>
-      <c r="B70" s="156"/>
-      <c r="C70" s="162"/>
-      <c r="D70" s="167"/>
+      <c r="A70" s="159"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="166"/>
       <c r="E70" s="41"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
@@ -11555,10 +11573,10 @@
       <c r="AX70" s="116"/>
     </row>
     <row r="71" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A71" s="160"/>
+      <c r="A71" s="159"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="156"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="41"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
@@ -11607,10 +11625,10 @@
       <c r="AX71" s="116"/>
     </row>
     <row r="72" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A72" s="160"/>
-      <c r="B72" s="156"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="167"/>
+      <c r="A72" s="159"/>
+      <c r="B72" s="155"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="166"/>
       <c r="E72" s="41"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
@@ -11659,10 +11677,10 @@
       <c r="AX72" s="116"/>
     </row>
     <row r="73" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A73" s="160"/>
+      <c r="A73" s="159"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="167"/>
+      <c r="C73" s="161"/>
+      <c r="D73" s="166"/>
       <c r="E73" s="41"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
@@ -11711,10 +11729,10 @@
       <c r="AX73" s="116"/>
     </row>
     <row r="74" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A74" s="166"/>
+      <c r="A74" s="165"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="167"/>
+      <c r="C74" s="161"/>
+      <c r="D74" s="166"/>
       <c r="E74" s="41"/>
       <c r="F74" s="116"/>
       <c r="G74" s="116"/>
@@ -11763,10 +11781,10 @@
       <c r="AX74" s="116"/>
     </row>
     <row r="75" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A75" s="166"/>
+      <c r="A75" s="165"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="167"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="166"/>
       <c r="E75" s="116"/>
       <c r="F75" s="116"/>
       <c r="G75" s="116"/>
@@ -11815,10 +11833,10 @@
       <c r="AX75" s="116"/>
     </row>
     <row r="76" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A76" s="160"/>
+      <c r="A76" s="159"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="162"/>
-      <c r="D76" s="156"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="41"/>
       <c r="F76" s="116"/>
       <c r="G76" s="116"/>
@@ -11867,10 +11885,10 @@
       <c r="AX76" s="116"/>
     </row>
     <row r="77" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A77" s="160"/>
+      <c r="A77" s="159"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="162"/>
-      <c r="D77" s="164"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="163"/>
       <c r="E77" s="42"/>
       <c r="F77" s="116"/>
       <c r="G77" s="116"/>
@@ -11919,10 +11937,10 @@
       <c r="AX77" s="116"/>
     </row>
     <row r="78" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A78" s="160"/>
+      <c r="A78" s="159"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="164"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="163"/>
       <c r="E78" s="42"/>
       <c r="F78" s="116"/>
       <c r="G78" s="116"/>
@@ -11971,10 +11989,10 @@
       <c r="AX78" s="116"/>
     </row>
     <row r="79" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A79" s="166"/>
+      <c r="A79" s="165"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="162"/>
-      <c r="D79" s="164"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="42"/>
       <c r="F79" s="116"/>
       <c r="G79" s="116"/>
@@ -12023,10 +12041,10 @@
       <c r="AX79" s="116"/>
     </row>
     <row r="80" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A80" s="160"/>
+      <c r="A80" s="159"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="162"/>
-      <c r="D80" s="167"/>
+      <c r="C80" s="161"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="42"/>
       <c r="F80" s="116"/>
       <c r="G80" s="116"/>
@@ -12075,10 +12093,10 @@
       <c r="AX80" s="116"/>
     </row>
     <row r="81" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A81" s="160"/>
+      <c r="A81" s="159"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="162"/>
-      <c r="D81" s="164"/>
+      <c r="C81" s="161"/>
+      <c r="D81" s="163"/>
       <c r="E81" s="41"/>
       <c r="F81" s="116"/>
       <c r="G81" s="116"/>
@@ -12127,10 +12145,10 @@
       <c r="AX81" s="116"/>
     </row>
     <row r="82" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A82" s="160"/>
+      <c r="A82" s="159"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="162"/>
-      <c r="D82" s="164"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="163"/>
       <c r="E82" s="41"/>
       <c r="F82" s="116"/>
       <c r="G82" s="116"/>
@@ -12179,10 +12197,10 @@
       <c r="AX82" s="116"/>
     </row>
     <row r="83" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A83" s="160"/>
+      <c r="A83" s="159"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="164"/>
+      <c r="C83" s="161"/>
+      <c r="D83" s="163"/>
       <c r="E83" s="41"/>
       <c r="F83" s="116"/>
       <c r="G83" s="116"/>
@@ -12231,10 +12249,10 @@
       <c r="AX83" s="116"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A84" s="160"/>
+      <c r="A84" s="159"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="164"/>
+      <c r="C84" s="156"/>
+      <c r="D84" s="163"/>
       <c r="E84" s="41"/>
       <c r="F84" s="116"/>
       <c r="G84" s="116"/>
@@ -12283,10 +12301,10 @@
       <c r="AX84" s="116"/>
     </row>
     <row r="85" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A85" s="160"/>
+      <c r="A85" s="159"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="162"/>
-      <c r="D85" s="164"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="163"/>
       <c r="E85" s="41"/>
       <c r="F85" s="116"/>
       <c r="G85" s="116"/>
@@ -12335,10 +12353,10 @@
       <c r="AX85" s="116"/>
     </row>
     <row r="86" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A86" s="160"/>
-      <c r="B86" s="156"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="167"/>
+      <c r="A86" s="159"/>
+      <c r="B86" s="155"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="166"/>
       <c r="E86" s="41"/>
       <c r="F86" s="116"/>
       <c r="G86" s="41"/>
@@ -12387,10 +12405,10 @@
       <c r="AX86" s="116"/>
     </row>
     <row r="87" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A87" s="160"/>
+      <c r="A87" s="159"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="164"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="163"/>
       <c r="E87" s="41"/>
       <c r="F87" s="116"/>
       <c r="G87" s="41"/>
@@ -12439,10 +12457,10 @@
       <c r="AX87" s="116"/>
     </row>
     <row r="88" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A88" s="160"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="162"/>
-      <c r="D88" s="164"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="163"/>
       <c r="E88" s="42"/>
       <c r="F88" s="116"/>
       <c r="G88" s="116"/>
@@ -12491,10 +12509,10 @@
       <c r="AX88" s="116"/>
     </row>
     <row r="89" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A89" s="166"/>
-      <c r="B89" s="167"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="164"/>
+      <c r="A89" s="165"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="163"/>
       <c r="E89" s="42"/>
       <c r="F89" s="116"/>
       <c r="G89" s="116"/>
@@ -12543,10 +12561,10 @@
       <c r="AX89" s="116"/>
     </row>
     <row r="90" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A90" s="166"/>
+      <c r="A90" s="165"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="164"/>
+      <c r="C90" s="161"/>
+      <c r="D90" s="163"/>
       <c r="E90" s="42"/>
       <c r="F90" s="116"/>
       <c r="G90" s="116"/>
@@ -12595,10 +12613,10 @@
       <c r="AX90" s="116"/>
     </row>
     <row r="91" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A91" s="160"/>
+      <c r="A91" s="159"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="162"/>
-      <c r="D91" s="164"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="163"/>
       <c r="E91" s="42"/>
       <c r="F91" s="116"/>
       <c r="G91" s="116"/>
@@ -12647,10 +12665,10 @@
       <c r="AX91" s="116"/>
     </row>
     <row r="92" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A92" s="160"/>
-      <c r="B92" s="156"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="156"/>
+      <c r="A92" s="159"/>
+      <c r="B92" s="155"/>
+      <c r="C92" s="161"/>
+      <c r="D92" s="155"/>
       <c r="E92" s="42"/>
       <c r="F92" s="116"/>
       <c r="G92" s="116"/>
@@ -12699,10 +12717,10 @@
       <c r="AX92" s="116"/>
     </row>
     <row r="93" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A93" s="160"/>
+      <c r="A93" s="159"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="164"/>
+      <c r="C93" s="161"/>
+      <c r="D93" s="163"/>
       <c r="E93" s="41"/>
       <c r="F93" s="116"/>
       <c r="G93" s="116"/>
@@ -12751,10 +12769,10 @@
       <c r="AX93" s="116"/>
     </row>
     <row r="94" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A94" s="160"/>
-      <c r="B94" s="156"/>
-      <c r="C94" s="162"/>
-      <c r="D94" s="156"/>
+      <c r="A94" s="159"/>
+      <c r="B94" s="155"/>
+      <c r="C94" s="161"/>
+      <c r="D94" s="155"/>
       <c r="E94" s="41"/>
       <c r="F94" s="116"/>
       <c r="G94" s="116"/>
@@ -12803,10 +12821,10 @@
       <c r="AX94" s="116"/>
     </row>
     <row r="95" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A95" s="166"/>
+      <c r="A95" s="165"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="162"/>
-      <c r="D95" s="167"/>
+      <c r="C95" s="161"/>
+      <c r="D95" s="166"/>
       <c r="E95" s="41"/>
       <c r="F95" s="116"/>
       <c r="G95" s="116"/>
@@ -12855,10 +12873,10 @@
       <c r="AX95" s="116"/>
     </row>
     <row r="96" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A96" s="160"/>
+      <c r="A96" s="159"/>
       <c r="B96" s="18"/>
-      <c r="C96" s="162"/>
-      <c r="D96" s="167"/>
+      <c r="C96" s="161"/>
+      <c r="D96" s="166"/>
       <c r="E96" s="41"/>
       <c r="F96" s="116"/>
       <c r="G96" s="116"/>
@@ -12907,10 +12925,10 @@
       <c r="AX96" s="116"/>
     </row>
     <row r="97" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A97" s="160"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="162"/>
-      <c r="D97" s="156"/>
+      <c r="A97" s="159"/>
+      <c r="B97" s="155"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="155"/>
       <c r="E97" s="41"/>
       <c r="F97" s="116"/>
       <c r="G97" s="116"/>
@@ -12959,10 +12977,10 @@
       <c r="AX97" s="116"/>
     </row>
     <row r="98" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A98" s="160"/>
+      <c r="A98" s="159"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="162"/>
-      <c r="D98" s="156"/>
+      <c r="C98" s="161"/>
+      <c r="D98" s="155"/>
       <c r="F98" s="116"/>
       <c r="G98" s="116"/>
       <c r="H98" s="116"/>
@@ -13010,10 +13028,10 @@
       <c r="AX98" s="116"/>
     </row>
     <row r="99" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A99" s="160"/>
+      <c r="A99" s="159"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="162"/>
-      <c r="D99" s="164"/>
+      <c r="C99" s="161"/>
+      <c r="D99" s="163"/>
       <c r="F99" s="116"/>
       <c r="G99" s="116"/>
       <c r="H99" s="116"/>
@@ -13061,10 +13079,10 @@
       <c r="AX99" s="116"/>
     </row>
     <row r="100" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A100" s="160"/>
-      <c r="B100" s="156"/>
-      <c r="C100" s="162"/>
-      <c r="D100" s="156"/>
+      <c r="A100" s="159"/>
+      <c r="B100" s="155"/>
+      <c r="C100" s="161"/>
+      <c r="D100" s="155"/>
       <c r="F100" s="116"/>
       <c r="G100" s="116"/>
       <c r="H100" s="116"/>
@@ -13112,10 +13130,10 @@
       <c r="AX100" s="116"/>
     </row>
     <row r="101" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A101" s="160"/>
-      <c r="B101" s="156"/>
-      <c r="C101" s="162"/>
-      <c r="D101" s="156"/>
+      <c r="A101" s="159"/>
+      <c r="B101" s="155"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="155"/>
       <c r="F101" s="116"/>
       <c r="G101" s="116"/>
       <c r="H101" s="116"/>
@@ -13163,10 +13181,10 @@
       <c r="AX101" s="116"/>
     </row>
     <row r="102" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A102" s="160"/>
-      <c r="B102" s="156"/>
-      <c r="C102" s="162"/>
-      <c r="D102" s="156"/>
+      <c r="A102" s="159"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="161"/>
+      <c r="D102" s="155"/>
       <c r="F102" s="116"/>
       <c r="G102" s="116"/>
       <c r="H102" s="116"/>
@@ -13214,10 +13232,10 @@
       <c r="AX102" s="116"/>
     </row>
     <row r="103" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A103" s="160"/>
-      <c r="B103" s="156"/>
-      <c r="C103" s="162"/>
-      <c r="D103" s="156"/>
+      <c r="A103" s="159"/>
+      <c r="B103" s="155"/>
+      <c r="C103" s="161"/>
+      <c r="D103" s="155"/>
       <c r="F103" s="116"/>
       <c r="G103" s="116"/>
       <c r="H103" s="116"/>
@@ -13265,10 +13283,10 @@
       <c r="AX103" s="116"/>
     </row>
     <row r="104" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A104" s="160"/>
+      <c r="A104" s="159"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="162"/>
-      <c r="D104" s="164"/>
+      <c r="C104" s="161"/>
+      <c r="D104" s="163"/>
       <c r="F104" s="116"/>
       <c r="G104" s="116"/>
       <c r="H104" s="116"/>
@@ -13316,10 +13334,10 @@
       <c r="AX104" s="116"/>
     </row>
     <row r="105" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A105" s="160"/>
-      <c r="B105" s="156"/>
-      <c r="C105" s="162"/>
-      <c r="D105" s="156"/>
+      <c r="A105" s="159"/>
+      <c r="B105" s="155"/>
+      <c r="C105" s="161"/>
+      <c r="D105" s="155"/>
       <c r="F105" s="116"/>
       <c r="G105" s="116"/>
       <c r="H105" s="116"/>
@@ -13367,10 +13385,10 @@
       <c r="AX105" s="116"/>
     </row>
     <row r="106" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A106" s="160"/>
-      <c r="B106" s="156"/>
-      <c r="C106" s="162"/>
-      <c r="D106" s="156"/>
+      <c r="A106" s="159"/>
+      <c r="B106" s="155"/>
+      <c r="C106" s="161"/>
+      <c r="D106" s="155"/>
       <c r="F106" s="116"/>
       <c r="G106" s="116"/>
       <c r="H106" s="116"/>
@@ -13418,10 +13436,10 @@
       <c r="AX106" s="116"/>
     </row>
     <row r="107" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A107" s="160"/>
-      <c r="B107" s="156"/>
-      <c r="C107" s="162"/>
-      <c r="D107" s="156"/>
+      <c r="A107" s="159"/>
+      <c r="B107" s="155"/>
+      <c r="C107" s="161"/>
+      <c r="D107" s="155"/>
       <c r="F107" s="116"/>
       <c r="G107" s="116"/>
       <c r="H107" s="116"/>
@@ -13469,10 +13487,10 @@
       <c r="AX107" s="116"/>
     </row>
     <row r="108" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A108" s="160"/>
-      <c r="B108" s="170"/>
-      <c r="C108" s="162"/>
-      <c r="D108" s="156"/>
+      <c r="A108" s="159"/>
+      <c r="B108" s="169"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="155"/>
       <c r="F108" s="116"/>
       <c r="G108" s="116"/>
       <c r="H108" s="116"/>
@@ -13520,10 +13538,10 @@
       <c r="AX108" s="116"/>
     </row>
     <row r="109" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A109" s="160"/>
-      <c r="B109" s="156"/>
-      <c r="C109" s="162"/>
-      <c r="D109" s="156"/>
+      <c r="A109" s="159"/>
+      <c r="B109" s="155"/>
+      <c r="C109" s="161"/>
+      <c r="D109" s="155"/>
       <c r="F109" s="116"/>
       <c r="G109" s="116"/>
       <c r="H109" s="116"/>
@@ -13571,10 +13589,10 @@
       <c r="AX109" s="116"/>
     </row>
     <row r="110" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A110" s="160"/>
-      <c r="B110" s="156"/>
-      <c r="C110" s="162"/>
-      <c r="D110" s="156"/>
+      <c r="A110" s="159"/>
+      <c r="B110" s="155"/>
+      <c r="C110" s="161"/>
+      <c r="D110" s="155"/>
       <c r="F110" s="116"/>
       <c r="G110" s="116"/>
       <c r="H110" s="116"/>
@@ -13622,10 +13640,10 @@
       <c r="AX110" s="116"/>
     </row>
     <row r="111" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A111" s="160"/>
+      <c r="A111" s="159"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="162"/>
-      <c r="D111" s="164"/>
+      <c r="C111" s="161"/>
+      <c r="D111" s="163"/>
       <c r="F111" s="116"/>
       <c r="G111" s="116"/>
       <c r="H111" s="116"/>
@@ -13673,10 +13691,10 @@
       <c r="AX111" s="116"/>
     </row>
     <row r="112" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A112" s="160"/>
-      <c r="B112" s="156"/>
-      <c r="C112" s="162"/>
-      <c r="D112" s="156"/>
+      <c r="A112" s="159"/>
+      <c r="B112" s="155"/>
+      <c r="C112" s="161"/>
+      <c r="D112" s="155"/>
       <c r="F112" s="116"/>
       <c r="G112" s="116"/>
       <c r="H112" s="116"/>
@@ -13724,10 +13742,10 @@
       <c r="AX112" s="116"/>
     </row>
     <row r="113" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A113" s="160"/>
-      <c r="B113" s="156"/>
-      <c r="C113" s="162"/>
-      <c r="D113" s="156"/>
+      <c r="A113" s="159"/>
+      <c r="B113" s="155"/>
+      <c r="C113" s="161"/>
+      <c r="D113" s="155"/>
       <c r="F113" s="116"/>
       <c r="G113" s="116"/>
       <c r="H113" s="116"/>
@@ -13775,10 +13793,10 @@
       <c r="AX113" s="116"/>
     </row>
     <row r="114" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A114" s="160"/>
-      <c r="B114" s="156"/>
-      <c r="C114" s="162"/>
-      <c r="D114" s="156"/>
+      <c r="A114" s="159"/>
+      <c r="B114" s="155"/>
+      <c r="C114" s="161"/>
+      <c r="D114" s="155"/>
       <c r="F114" s="116"/>
       <c r="G114" s="116"/>
       <c r="H114" s="116"/>
@@ -13826,10 +13844,10 @@
       <c r="AX114" s="116"/>
     </row>
     <row r="115" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A115" s="160"/>
-      <c r="B115" s="156"/>
-      <c r="C115" s="162"/>
-      <c r="D115" s="156"/>
+      <c r="A115" s="159"/>
+      <c r="B115" s="155"/>
+      <c r="C115" s="161"/>
+      <c r="D115" s="155"/>
       <c r="F115" s="116"/>
       <c r="G115" s="116"/>
       <c r="H115" s="116"/>
@@ -13877,10 +13895,10 @@
       <c r="AX115" s="116"/>
     </row>
     <row r="116" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A116" s="166"/>
-      <c r="B116" s="170"/>
-      <c r="C116" s="162"/>
-      <c r="D116" s="156"/>
+      <c r="A116" s="165"/>
+      <c r="B116" s="169"/>
+      <c r="C116" s="161"/>
+      <c r="D116" s="155"/>
       <c r="F116" s="116"/>
       <c r="G116" s="116"/>
       <c r="H116" s="116"/>
@@ -13928,10 +13946,10 @@
       <c r="AX116" s="116"/>
     </row>
     <row r="117" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A117" s="160"/>
-      <c r="B117" s="156"/>
-      <c r="C117" s="162"/>
-      <c r="D117" s="156"/>
+      <c r="A117" s="159"/>
+      <c r="B117" s="155"/>
+      <c r="C117" s="161"/>
+      <c r="D117" s="155"/>
       <c r="F117" s="116"/>
       <c r="G117" s="116"/>
       <c r="H117" s="116"/>
@@ -13979,10 +13997,10 @@
       <c r="AX117" s="116"/>
     </row>
     <row r="118" spans="1:50" ht="13.5" hidden="1" thickBot="1">
-      <c r="A118" s="171"/>
-      <c r="B118" s="172"/>
-      <c r="C118" s="173"/>
-      <c r="D118" s="174"/>
+      <c r="A118" s="170"/>
+      <c r="B118" s="171"/>
+      <c r="C118" s="172"/>
+      <c r="D118" s="173"/>
       <c r="F118" s="116"/>
       <c r="G118" s="116"/>
       <c r="H118" s="116"/>
@@ -14030,15 +14048,15 @@
       <c r="AX118" s="116"/>
     </row>
     <row r="119" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A119" s="241" t="s">
+      <c r="A119" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="242"/>
-      <c r="C119" s="176">
+      <c r="B119" s="247"/>
+      <c r="C119" s="175">
         <f>SUM(C37:C118)</f>
         <v>917180</v>
       </c>
-      <c r="D119" s="175"/>
+      <c r="D119" s="174"/>
       <c r="F119" s="116"/>
       <c r="G119" s="116"/>
       <c r="H119" s="116"/>
@@ -14137,10 +14155,10 @@
       <c r="AX120" s="116"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A121" s="243" t="s">
+      <c r="A121" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B121" s="244"/>
+      <c r="B121" s="249"/>
       <c r="C121" s="133">
         <f>C119</f>
         <v>917180</v>
@@ -14322,7 +14340,7 @@
       <c r="M125" s="116"/>
     </row>
     <row r="126" spans="1:50">
-      <c r="A126" s="155"/>
+      <c r="A126" s="154"/>
       <c r="F126" s="116"/>
       <c r="G126" s="116"/>
       <c r="H126" s="116"/>
@@ -14333,7 +14351,7 @@
       <c r="M126" s="116"/>
     </row>
     <row r="127" spans="1:50">
-      <c r="A127" s="155"/>
+      <c r="A127" s="154"/>
       <c r="F127" s="116"/>
       <c r="G127" s="116"/>
       <c r="H127" s="116"/>
@@ -14344,7 +14362,7 @@
       <c r="M127" s="116"/>
     </row>
     <row r="128" spans="1:50">
-      <c r="A128" s="155"/>
+      <c r="A128" s="154"/>
       <c r="F128" s="116"/>
       <c r="G128" s="116"/>
       <c r="H128" s="116"/>
@@ -14355,7 +14373,7 @@
       <c r="M128" s="116"/>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="155"/>
+      <c r="A129" s="154"/>
       <c r="F129" s="116"/>
       <c r="G129" s="116"/>
       <c r="H129" s="116"/>
@@ -14366,7 +14384,7 @@
       <c r="M129" s="116"/>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="155"/>
+      <c r="A130" s="154"/>
       <c r="F130" s="116"/>
       <c r="G130" s="116"/>
       <c r="H130" s="116"/>
@@ -14377,7 +14395,7 @@
       <c r="M130" s="116"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="155"/>
+      <c r="A131" s="154"/>
       <c r="F131" s="116"/>
       <c r="G131" s="116"/>
       <c r="H131" s="116"/>
@@ -14385,7 +14403,7 @@
       <c r="J131" s="116"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="155"/>
+      <c r="A132" s="154"/>
       <c r="F132" s="116"/>
       <c r="G132" s="116"/>
       <c r="H132" s="116"/>
@@ -14393,7 +14411,7 @@
       <c r="J132" s="116"/>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="155"/>
+      <c r="A133" s="154"/>
       <c r="F133" s="116"/>
       <c r="G133" s="116"/>
       <c r="H133" s="116"/>
@@ -14401,7 +14419,7 @@
       <c r="J133" s="116"/>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="155"/>
+      <c r="A134" s="154"/>
       <c r="F134" s="116"/>
       <c r="G134" s="116"/>
       <c r="H134" s="116"/>
@@ -14409,7 +14427,7 @@
       <c r="J134" s="116"/>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="155"/>
+      <c r="A135" s="154"/>
       <c r="F135" s="116"/>
       <c r="G135" s="116"/>
       <c r="H135" s="116"/>
@@ -14417,7 +14435,7 @@
       <c r="J135" s="116"/>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="155"/>
+      <c r="A136" s="154"/>
       <c r="F136" s="116"/>
       <c r="G136" s="116"/>
       <c r="H136" s="116"/>
@@ -14425,7 +14443,7 @@
       <c r="J136" s="116"/>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="155"/>
+      <c r="A137" s="154"/>
       <c r="F137" s="116"/>
       <c r="G137" s="116"/>
       <c r="H137" s="116"/>
@@ -14447,19 +14465,19 @@
       <c r="J139" s="116"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="155"/>
+      <c r="A140" s="154"/>
       <c r="H140" s="36"/>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="155"/>
+      <c r="A141" s="154"/>
       <c r="H141" s="36"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="155"/>
+      <c r="A142" s="154"/>
       <c r="H142" s="36"/>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="155"/>
+      <c r="A143" s="154"/>
       <c r="H143" s="36"/>
     </row>
     <row r="144" spans="1:13">
@@ -14908,10 +14926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB217"/>
+  <dimension ref="A1:AB216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14936,36 +14954,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="144"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="143"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="144"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="143"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="266" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="144"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -14990,14 +15008,14 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="275" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="144"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -15021,10 +15039,10 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="21.75">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="148">
         <v>9000000</v>
       </c>
       <c r="C5" s="129"/>
@@ -15034,7 +15052,7 @@
       <c r="E5" s="140">
         <v>6870065</v>
       </c>
-      <c r="F5" s="144"/>
+      <c r="F5" s="143"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -15070,7 +15088,7 @@
       <c r="E6" s="124">
         <v>29807</v>
       </c>
-      <c r="F6" s="144"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="27"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -15094,12 +15112,8 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="21.75">
-      <c r="A7" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="123">
-        <v>35190</v>
-      </c>
+      <c r="A7" s="33"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="32"/>
       <c r="D7" s="120" t="s">
         <v>51</v>
@@ -15107,7 +15121,7 @@
       <c r="E7" s="141">
         <v>1371708.75</v>
       </c>
-      <c r="F7" s="144"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="15" t="s">
         <v>11</v>
       </c>
@@ -15139,7 +15153,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="121"/>
       <c r="E8" s="141"/>
-      <c r="F8" s="144"/>
+      <c r="F8" s="143"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -15172,7 +15186,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="120"/>
       <c r="E9" s="124"/>
-      <c r="F9" s="144"/>
+      <c r="F9" s="143"/>
       <c r="G9" s="28"/>
       <c r="H9" s="27"/>
       <c r="I9" s="1"/>
@@ -15210,7 +15224,7 @@
       <c r="E10" s="124">
         <v>917180</v>
       </c>
-      <c r="F10" s="144"/>
+      <c r="F10" s="143"/>
       <c r="G10" s="28"/>
       <c r="H10" s="27"/>
       <c r="I10" s="1"/>
@@ -15235,12 +15249,12 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="21.75">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="189">
-        <f>B6-B9-B10+B7</f>
-        <v>276460.75</v>
+      <c r="B11" s="225">
+        <f>B6-B9-B10</f>
+        <v>241270.75</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="120" t="s">
@@ -15249,7 +15263,7 @@
       <c r="E11" s="124">
         <v>87700</v>
       </c>
-      <c r="F11" s="144"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="8"/>
       <c r="H11" s="27" t="s">
         <v>35</v>
@@ -15275,8 +15289,12 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="21.75">
-      <c r="A12" s="186"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="123">
+        <v>35190</v>
+      </c>
       <c r="C12" s="32"/>
       <c r="D12" s="120" t="s">
         <v>39</v>
@@ -15284,9 +15302,9 @@
       <c r="E12" s="141">
         <v>0</v>
       </c>
-      <c r="F12" s="144"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="192"/>
+      <c r="H12" s="188"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -15304,12 +15322,12 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="21.75">
-      <c r="A13" s="185"/>
-      <c r="B13" s="142"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="120"/>
       <c r="D13" s="120"/>
       <c r="E13" s="124"/>
-      <c r="F13" s="144"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="110">
         <f>B18-E18</f>
         <v>0</v>
@@ -15332,12 +15350,17 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="21.75">
-      <c r="A14" s="33"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="185">
+        <f>B12+B11</f>
+        <v>276460.75</v>
+      </c>
       <c r="C14" s="32"/>
       <c r="D14" s="120"/>
       <c r="E14" s="124"/>
-      <c r="F14" s="144"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="7"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -15362,7 +15385,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="120"/>
       <c r="E15" s="124"/>
-      <c r="F15" s="144"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="8"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -15387,7 +15410,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="121"/>
       <c r="E16" s="141"/>
-      <c r="F16" s="144"/>
+      <c r="F16" s="143"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -15411,7 +15434,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="121"/>
       <c r="E17" s="141"/>
-      <c r="F17" s="144"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="128"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -15435,7 +15458,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="123">
-        <f>B5+B11-B14</f>
+        <f>B5+B14</f>
         <v>9276460.75</v>
       </c>
       <c r="C18" s="32"/>
@@ -15446,7 +15469,7 @@
         <f>SUM(E5:E17)</f>
         <v>9276460.75</v>
       </c>
-      <c r="F18" s="144"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="127"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -15473,7 +15496,7 @@
       <c r="C19" s="118"/>
       <c r="D19" s="122"/>
       <c r="E19" s="126"/>
-      <c r="F19" s="144"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="127"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -15498,14 +15521,14 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="267" t="s">
+      <c r="A20" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="268"/>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="144"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="127"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -15530,20 +15553,20 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="21.75">
-      <c r="A21" s="219" t="s">
+      <c r="A21" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="146">
-        <v>70000</v>
-      </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143" t="s">
+      <c r="B21" s="145">
+        <v>65000</v>
+      </c>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="146">
         <v>119000</v>
       </c>
-      <c r="F21" s="145"/>
+      <c r="F21" s="144"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -15565,20 +15588,20 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="21.75">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="151">
+      <c r="B22" s="150">
         <v>24000</v>
       </c>
-      <c r="C22" s="152"/>
-      <c r="D22" s="150" t="s">
+      <c r="C22" s="151"/>
+      <c r="D22" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="154">
+      <c r="E22" s="153">
         <v>112000</v>
       </c>
-      <c r="F22" s="145"/>
+      <c r="F22" s="144"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -15599,63 +15622,62 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="21.75">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="151">
+      <c r="B23" s="150">
         <v>100000</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="150" t="s">
+      <c r="C23" s="151"/>
+      <c r="D23" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <v>46270</v>
       </c>
       <c r="F23" s="127"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="192"/>
+      <c r="H23" s="188"/>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="21.75">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="197">
-        <v>250000</v>
-      </c>
-      <c r="C24" s="198"/>
-      <c r="D24" s="199" t="s">
+      <c r="B24" s="193">
+        <v>260000</v>
+      </c>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="200">
+      <c r="E24" s="196">
         <v>30810</v>
       </c>
       <c r="F24" s="127"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A25" s="196" t="s">
+      <c r="A25" s="217" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="197">
+      <c r="B25" s="218">
         <v>117810</v>
       </c>
-      <c r="C25" s="198"/>
-      <c r="D25" s="199" t="s">
+      <c r="C25" s="219"/>
+      <c r="D25" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="200">
+      <c r="E25" s="221">
         <v>30810</v>
       </c>
       <c r="F25" s="127"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:28" ht="21" thickBot="1">
-      <c r="A26" s="258"/>
-      <c r="B26" s="259"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="260"/>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -15734,7 +15756,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="H29" s="1"/>
@@ -15787,10 +15809,6 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -15814,6 +15832,7 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28">
+      <c r="E32" s="23"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -15836,8 +15855,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="5:28">
-      <c r="E33" s="23"/>
+    <row r="33" spans="8:28">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -15860,7 +15878,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="5:28">
+    <row r="34" spans="8:28">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -15883,7 +15901,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="5:28">
+    <row r="35" spans="8:28">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -15906,7 +15924,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="5:28">
+    <row r="36" spans="8:28">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -15929,7 +15947,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="5:28">
+    <row r="37" spans="8:28">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -15952,7 +15970,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="5:28">
+    <row r="38" spans="8:28">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -15975,7 +15993,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="5:28">
+    <row r="39" spans="8:28">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -15998,7 +16016,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="5:28">
+    <row r="40" spans="8:28">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -16021,7 +16039,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="5:28">
+    <row r="41" spans="8:28">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -16044,7 +16062,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="5:28">
+    <row r="42" spans="8:28">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -16067,7 +16085,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="5:28">
+    <row r="43" spans="8:28">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -16090,7 +16108,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="5:28">
+    <row r="44" spans="8:28">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -16113,7 +16131,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="5:28">
+    <row r="45" spans="8:28">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -16136,7 +16154,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="5:28">
+    <row r="46" spans="8:28">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -16159,7 +16177,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="5:28">
+    <row r="47" spans="8:28">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -16182,7 +16200,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="5:28">
+    <row r="48" spans="8:28">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -20069,35 +20087,11 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="8:28">
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-      <c r="Z217" s="1"/>
-      <c r="AA217" s="1"/>
-      <c r="AB217" s="1"/>
-    </row>
   </sheetData>
   <sortState ref="D23:E26">
     <sortCondition ref="D23"/>
   </sortState>
-  <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A20:E20"/>
